--- a/Code/Results/Cases/Case_7_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_34/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.98358054730005</v>
+        <v>22.19264127298635</v>
       </c>
       <c r="C2">
-        <v>20.33193626604448</v>
+        <v>15.75494061271699</v>
       </c>
       <c r="D2">
-        <v>2.597342178272195</v>
+        <v>3.210256606691849</v>
       </c>
       <c r="E2">
-        <v>30.43379218429154</v>
+        <v>30.14026930417094</v>
       </c>
       <c r="F2">
-        <v>32.47661034114981</v>
+        <v>20.13146211018717</v>
       </c>
       <c r="G2">
-        <v>2.024274650925221</v>
+        <v>2.041467443599555</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.56462574052953</v>
+        <v>10.79793041346813</v>
       </c>
       <c r="O2">
-        <v>24.90232442063045</v>
+        <v>15.2447625721885</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.04118649004977</v>
+        <v>20.71562228690579</v>
       </c>
       <c r="C3">
-        <v>18.89604857227337</v>
+        <v>14.80248896446853</v>
       </c>
       <c r="D3">
-        <v>2.717401637049007</v>
+        <v>3.135991522279772</v>
       </c>
       <c r="E3">
-        <v>28.1149608269274</v>
+        <v>27.93290849918413</v>
       </c>
       <c r="F3">
-        <v>30.55431956232758</v>
+        <v>19.15584597541385</v>
       </c>
       <c r="G3">
-        <v>2.036377899709037</v>
+        <v>2.048126427570985</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>10.88662939905178</v>
+        <v>10.95047900607175</v>
       </c>
       <c r="O3">
-        <v>23.56290937009182</v>
+        <v>14.69692446600516</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.79049323284247</v>
+        <v>19.75727601129737</v>
       </c>
       <c r="C4">
-        <v>17.97264216763061</v>
+        <v>14.18717326213464</v>
       </c>
       <c r="D4">
-        <v>2.792891617198996</v>
+        <v>3.08919629956481</v>
       </c>
       <c r="E4">
-        <v>26.63719043333777</v>
+        <v>26.51521807522412</v>
       </c>
       <c r="F4">
-        <v>29.36532998453891</v>
+        <v>18.55774255921811</v>
       </c>
       <c r="G4">
-        <v>2.043920820802304</v>
+        <v>2.052319188319746</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.08577215519103</v>
+        <v>11.04766722466025</v>
       </c>
       <c r="O4">
-        <v>22.74420093508528</v>
+        <v>14.37180061486598</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.26589741351447</v>
+        <v>19.3537181742894</v>
       </c>
       <c r="C5">
-        <v>17.58559077375133</v>
+        <v>13.92878319206443</v>
       </c>
       <c r="D5">
-        <v>2.824063859206412</v>
+        <v>3.069845076480352</v>
       </c>
       <c r="E5">
-        <v>26.02071172758802</v>
+        <v>25.92144216777629</v>
       </c>
       <c r="F5">
-        <v>28.8788436422596</v>
+        <v>18.31455549796463</v>
       </c>
       <c r="G5">
-        <v>2.047027134394599</v>
+        <v>2.054055201869201</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.1673841238251</v>
+        <v>11.08815240886008</v>
       </c>
       <c r="O5">
-        <v>22.41164811524492</v>
+        <v>14.24223881449349</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.17787795065884</v>
+        <v>19.2859187481976</v>
       </c>
       <c r="C6">
-        <v>17.5206646570573</v>
+        <v>13.88541729486414</v>
       </c>
       <c r="D6">
-        <v>2.829263953629321</v>
+        <v>3.066615381740952</v>
       </c>
       <c r="E6">
-        <v>25.91746476471859</v>
+        <v>25.82186595999729</v>
       </c>
       <c r="F6">
-        <v>28.79795378506759</v>
+        <v>18.27421738439938</v>
       </c>
       <c r="G6">
-        <v>2.047545021117992</v>
+        <v>2.054345157155113</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.1809662447819</v>
+        <v>11.09492796858759</v>
       </c>
       <c r="O6">
-        <v>22.35649914979978</v>
+        <v>14.22090498184743</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.78347920937417</v>
+        <v>19.75188633031431</v>
       </c>
       <c r="C7">
-        <v>17.96746612296085</v>
+        <v>14.18371942056971</v>
       </c>
       <c r="D7">
-        <v>2.793310395406542</v>
+        <v>3.088936437112777</v>
       </c>
       <c r="E7">
-        <v>26.62893505274672</v>
+        <v>26.50727569052539</v>
       </c>
       <c r="F7">
-        <v>29.35877660503772</v>
+        <v>18.55446020132923</v>
       </c>
       <c r="G7">
-        <v>2.043962576413761</v>
+        <v>2.052342488155177</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.08687081593647</v>
+        <v>11.04820966444023</v>
       </c>
       <c r="O7">
-        <v>22.73971138548707</v>
+        <v>14.37004130834958</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.32568451356742</v>
+        <v>21.69398879436138</v>
       </c>
       <c r="C8">
-        <v>19.8453491626842</v>
+        <v>15.43287618750728</v>
       </c>
       <c r="D8">
-        <v>2.638343137894991</v>
+        <v>3.18490925641766</v>
       </c>
       <c r="E8">
-        <v>29.64502168762461</v>
+        <v>29.39188079390492</v>
       </c>
       <c r="F8">
-        <v>31.81569504332025</v>
+        <v>19.79504860274865</v>
       </c>
       <c r="G8">
-        <v>2.028427568464176</v>
+        <v>2.043742631441911</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10.67541851315099</v>
+        <v>10.84979416253855</v>
       </c>
       <c r="O8">
-        <v>24.43978457618412</v>
+        <v>15.05359171153074</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.86696388873424</v>
+        <v>25.09859867766054</v>
       </c>
       <c r="C9">
-        <v>23.20957217529628</v>
+        <v>17.6403679686246</v>
       </c>
       <c r="D9">
-        <v>2.35139789581407</v>
+        <v>3.362854647185698</v>
       </c>
       <c r="E9">
-        <v>35.16740931464698</v>
+        <v>34.57219233030288</v>
       </c>
       <c r="F9">
-        <v>36.56974213965515</v>
+        <v>22.22421392895321</v>
       </c>
       <c r="G9">
-        <v>1.998615917208358</v>
+        <v>2.027642982253848</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.874884378766884</v>
+        <v>10.48898800501528</v>
       </c>
       <c r="O9">
-        <v>27.80220982421648</v>
+        <v>16.47930544259558</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.95945381558752</v>
+        <v>27.36057158935538</v>
       </c>
       <c r="C10">
-        <v>25.50856389702273</v>
+        <v>19.11602345375609</v>
       </c>
       <c r="D10">
-        <v>2.15798762009284</v>
+        <v>3.486410855448013</v>
       </c>
       <c r="E10">
-        <v>39.0459291671097</v>
+        <v>38.11616967421757</v>
       </c>
       <c r="F10">
-        <v>40.32941238820356</v>
+        <v>23.99613760866688</v>
       </c>
       <c r="G10">
-        <v>1.97673001587075</v>
+        <v>2.016186253230546</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>9.282641199700123</v>
+        <v>10.24175541552397</v>
       </c>
       <c r="O10">
-        <v>30.66954833929836</v>
+        <v>17.5745902721662</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.32052685329209</v>
+        <v>28.33930732091953</v>
       </c>
       <c r="C11">
-        <v>26.52280822240143</v>
+        <v>19.75625876336815</v>
       </c>
       <c r="D11">
-        <v>2.076759476304157</v>
+        <v>3.540892619515687</v>
       </c>
       <c r="E11">
-        <v>40.78867141383149</v>
+        <v>39.67876476368763</v>
       </c>
       <c r="F11">
-        <v>42.02424291408698</v>
+        <v>24.85185686719641</v>
       </c>
       <c r="G11">
-        <v>1.966671145760279</v>
+        <v>2.011031241964355</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>9.010254260123515</v>
+        <v>10.13334547959639</v>
       </c>
       <c r="O11">
-        <v>31.9889205301231</v>
+        <v>18.08283437009755</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.83008654861094</v>
+        <v>28.7028574816673</v>
       </c>
       <c r="C12">
-        <v>26.90293961918471</v>
+        <v>19.99430993698489</v>
       </c>
       <c r="D12">
-        <v>2.0473816139625</v>
+        <v>3.561263284214063</v>
       </c>
       <c r="E12">
-        <v>41.44731216584701</v>
+        <v>40.26404191870724</v>
       </c>
       <c r="F12">
-        <v>42.66485492385633</v>
+        <v>25.19955050863991</v>
       </c>
       <c r="G12">
-        <v>1.96283630411645</v>
+        <v>2.009085094207409</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>8.90648004271595</v>
+        <v>10.0928973005724</v>
       </c>
       <c r="O12">
-        <v>32.48781000918798</v>
+        <v>18.28095518276673</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.72059085800212</v>
+        <v>28.62487260549137</v>
       </c>
       <c r="C13">
-        <v>26.8212359383123</v>
+        <v>19.94323535843081</v>
       </c>
       <c r="D13">
-        <v>2.053638796946801</v>
+        <v>3.556887860920842</v>
       </c>
       <c r="E13">
-        <v>41.30548654255723</v>
+        <v>40.13826669287756</v>
       </c>
       <c r="F13">
-        <v>42.5269205942346</v>
+        <v>25.12479355254085</v>
       </c>
       <c r="G13">
-        <v>1.963663551007373</v>
+        <v>2.009504005686672</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>8.92886105055301</v>
+        <v>10.10158128820876</v>
       </c>
       <c r="O13">
-        <v>32.38038120212845</v>
+        <v>18.2349110239473</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.36256121739242</v>
+        <v>28.36935771110903</v>
       </c>
       <c r="C14">
-        <v>26.55415697688928</v>
+        <v>19.77593092392334</v>
       </c>
       <c r="D14">
-        <v>2.074311883293468</v>
+        <v>3.542573811172715</v>
       </c>
       <c r="E14">
-        <v>40.84287236146491</v>
+        <v>39.72704075529471</v>
       </c>
       <c r="F14">
-        <v>42.07696317102064</v>
+        <v>24.88051842802208</v>
       </c>
       <c r="G14">
-        <v>1.966356238334136</v>
+        <v>2.010871025717808</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>9.001730505628288</v>
+        <v>10.13000553871173</v>
       </c>
       <c r="O14">
-        <v>32.02997322944893</v>
+        <v>18.09875772818931</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.14251983933285</v>
+        <v>28.21193067455015</v>
       </c>
       <c r="C15">
-        <v>26.39007001904611</v>
+        <v>19.6728825952783</v>
       </c>
       <c r="D15">
-        <v>2.087169767213398</v>
+        <v>3.533771786796854</v>
       </c>
       <c r="E15">
-        <v>40.55939945792446</v>
+        <v>39.47433573493107</v>
       </c>
       <c r="F15">
-        <v>41.80123294075828</v>
+        <v>24.73052394456789</v>
       </c>
       <c r="G15">
-        <v>1.968001867718788</v>
+        <v>2.011709068805847</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>9.046277072988973</v>
+        <v>10.14749559824521</v>
       </c>
       <c r="O15">
-        <v>31.81527325755758</v>
+        <v>18.01554819484171</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.86964352540097</v>
+        <v>27.29561026853984</v>
       </c>
       <c r="C16">
-        <v>25.44169388355119</v>
+        <v>19.07356363319365</v>
       </c>
       <c r="D16">
-        <v>2.163463311730667</v>
+        <v>3.482814548733571</v>
       </c>
       <c r="E16">
-        <v>38.93174776734961</v>
+        <v>38.01310936055111</v>
       </c>
       <c r="F16">
-        <v>40.21842255754576</v>
+        <v>23.94362782851246</v>
       </c>
       <c r="G16">
-        <v>1.977384427793624</v>
+        <v>2.016524103278525</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>9.300366050625684</v>
+        <v>10.24892360045789</v>
       </c>
       <c r="O16">
-        <v>30.58316973508171</v>
+        <v>17.54157586576341</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.07754151397037</v>
+        <v>26.72070984465514</v>
       </c>
       <c r="C17">
-        <v>24.85219961006885</v>
+        <v>18.69799515234109</v>
       </c>
       <c r="D17">
-        <v>2.212238964648249</v>
+        <v>3.451102957354149</v>
       </c>
       <c r="E17">
-        <v>37.92886872068507</v>
+        <v>37.10445661823945</v>
       </c>
       <c r="F17">
-        <v>39.24411217104628</v>
+        <v>23.48301701898591</v>
       </c>
       <c r="G17">
-        <v>1.983106830617197</v>
+        <v>2.019491001773645</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>9.45534630642579</v>
+        <v>10.31219923470603</v>
       </c>
       <c r="O17">
-        <v>29.82501466654012</v>
+        <v>17.25335974989521</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.61759210655897</v>
+        <v>26.38530304644786</v>
       </c>
       <c r="C18">
-        <v>24.51012386392556</v>
+        <v>18.47905035823475</v>
       </c>
       <c r="D18">
-        <v>2.240896573507826</v>
+        <v>3.432701616211586</v>
       </c>
       <c r="E18">
-        <v>37.34987616131956</v>
+        <v>36.57711119459213</v>
       </c>
       <c r="F18">
-        <v>38.68218141800929</v>
+        <v>23.21772847747959</v>
       </c>
       <c r="G18">
-        <v>1.986389292897628</v>
+        <v>2.021202967964008</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>9.544220523562538</v>
+        <v>10.3489741390014</v>
       </c>
       <c r="O18">
-        <v>29.38783189706104</v>
+        <v>17.08852383268887</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.46109347691109</v>
+        <v>26.27092176708846</v>
       </c>
       <c r="C19">
-        <v>24.39376874498828</v>
+        <v>18.40441463194838</v>
       </c>
       <c r="D19">
-        <v>2.250693250859215</v>
+        <v>3.426443871834083</v>
       </c>
       <c r="E19">
-        <v>37.15341877480104</v>
+        <v>36.39773227048141</v>
       </c>
       <c r="F19">
-        <v>38.49163083249846</v>
+        <v>23.12784624970653</v>
       </c>
       <c r="G19">
-        <v>1.98749944748086</v>
+        <v>2.021783615571429</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>9.574271716083897</v>
+        <v>10.36149025628895</v>
       </c>
       <c r="O19">
-        <v>29.23959538440842</v>
+        <v>17.03287487954334</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.16230784279322</v>
+        <v>26.78239843584876</v>
       </c>
       <c r="C20">
-        <v>24.91526026264637</v>
+        <v>18.73827759516968</v>
       </c>
       <c r="D20">
-        <v>2.206981844976312</v>
+        <v>3.454495537191821</v>
       </c>
       <c r="E20">
-        <v>38.03583890580746</v>
+        <v>37.201667285566</v>
       </c>
       <c r="F20">
-        <v>39.34798121833686</v>
+        <v>23.5320870785456</v>
       </c>
       <c r="G20">
-        <v>1.982498666095633</v>
+        <v>2.019174617930706</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>9.438877318380456</v>
+        <v>10.30542392325421</v>
       </c>
       <c r="O20">
-        <v>29.9058310605941</v>
+        <v>17.28394382260901</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.46787548228316</v>
+        <v>28.44459939829112</v>
       </c>
       <c r="C21">
-        <v>26.63270611673338</v>
+        <v>19.82519082833575</v>
       </c>
       <c r="D21">
-        <v>2.068198067122569</v>
+        <v>3.546785353566313</v>
       </c>
       <c r="E21">
-        <v>40.97877211328896</v>
+        <v>39.847996742352</v>
       </c>
       <c r="F21">
-        <v>42.20914895349851</v>
+        <v>24.9523445628292</v>
       </c>
       <c r="G21">
-        <v>1.965566128769553</v>
+        <v>2.010469356442728</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>8.980345731819254</v>
+        <v>10.12164006062465</v>
       </c>
       <c r="O21">
-        <v>32.13290819038097</v>
+        <v>18.13870995288072</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.94104775423691</v>
+        <v>29.48978107596357</v>
       </c>
       <c r="C22">
-        <v>27.73255768572167</v>
+        <v>20.50999714351109</v>
       </c>
       <c r="D22">
-        <v>1.985875882062863</v>
+        <v>3.605579527018719</v>
       </c>
       <c r="E22">
-        <v>42.89574599991799</v>
+        <v>41.54035480854116</v>
       </c>
       <c r="F22">
-        <v>44.07289421080906</v>
+        <v>25.95917493053298</v>
       </c>
       <c r="G22">
-        <v>1.954342703712818</v>
+        <v>2.004813381078018</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>8.676899620603596</v>
+        <v>10.00506167847011</v>
       </c>
       <c r="O22">
-        <v>33.58477155221811</v>
+        <v>18.85687950016453</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.15758942527304</v>
+        <v>28.93566090356409</v>
       </c>
       <c r="C23">
-        <v>27.14738256756175</v>
+        <v>20.14681293317535</v>
       </c>
       <c r="D23">
-        <v>2.028861759533627</v>
+        <v>3.574343019785856</v>
       </c>
       <c r="E23">
-        <v>41.87249493173972</v>
+        <v>40.64026133207673</v>
       </c>
       <c r="F23">
-        <v>43.07832196383939</v>
+        <v>25.42327970435672</v>
       </c>
       <c r="G23">
-        <v>1.960351473582147</v>
+        <v>2.00782982584614</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>8.83927283626779</v>
+        <v>10.06695035684414</v>
       </c>
       <c r="O23">
-        <v>32.80986769064499</v>
+        <v>18.45052964091207</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.12399923995913</v>
+        <v>26.75452426268147</v>
       </c>
       <c r="C24">
-        <v>24.88676045178681</v>
+        <v>18.72007533170808</v>
       </c>
       <c r="D24">
-        <v>2.209356699003451</v>
+        <v>3.452962280172692</v>
       </c>
       <c r="E24">
-        <v>37.98748536652182</v>
+        <v>37.15773380797086</v>
       </c>
       <c r="F24">
-        <v>39.30102766200471</v>
+        <v>23.50990398965572</v>
       </c>
       <c r="G24">
-        <v>1.982773639599663</v>
+        <v>2.019317635414159</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>9.44632363706096</v>
+        <v>10.30848580684202</v>
       </c>
       <c r="O24">
-        <v>29.869298109838</v>
+        <v>17.27011407387025</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.68342616894207</v>
+        <v>24.22013252131998</v>
       </c>
       <c r="C25">
-        <v>22.33152896859778</v>
+        <v>17.06902418366736</v>
       </c>
       <c r="D25">
-        <v>2.42667609233345</v>
+        <v>3.315914909287522</v>
       </c>
       <c r="E25">
-        <v>33.7098344257168</v>
+        <v>33.21902572473957</v>
       </c>
       <c r="F25">
-        <v>35.28607136987235</v>
+        <v>21.5687573508746</v>
       </c>
       <c r="G25">
-        <v>2.006646600954067</v>
+        <v>2.03192570320245</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.09153534378733</v>
+        <v>10.5835138854558</v>
       </c>
       <c r="O25">
-        <v>26.88913302329189</v>
+        <v>16.0849836657675</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_34/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,43 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.19264127298635</v>
+        <v>20.30864530961976</v>
       </c>
       <c r="C2">
-        <v>15.75494061271699</v>
+        <v>14.89766179404549</v>
       </c>
       <c r="D2">
-        <v>3.210256606691849</v>
+        <v>4.107339272419821</v>
       </c>
       <c r="E2">
-        <v>30.14026930417094</v>
+        <v>29.87642164541396</v>
       </c>
       <c r="F2">
-        <v>20.13146211018717</v>
+        <v>16.70701267354651</v>
       </c>
       <c r="G2">
-        <v>2.041467443599555</v>
+        <v>20.90398152063272</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>3.557038586447304</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.609482533865631</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>9.850002866316084</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,45 +460,48 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.79793041346813</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>15.2447625721885</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>11.50708255702121</v>
+      </c>
+      <c r="Q2">
+        <v>12.6097325330982</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.71562228690579</v>
+        <v>19.02521981722242</v>
       </c>
       <c r="C3">
-        <v>14.80248896446853</v>
+        <v>14.02152871834951</v>
       </c>
       <c r="D3">
-        <v>3.135991522279772</v>
+        <v>3.917764021952383</v>
       </c>
       <c r="E3">
-        <v>27.93290849918413</v>
+        <v>28.02939649694819</v>
       </c>
       <c r="F3">
-        <v>19.15584597541385</v>
+        <v>16.02352796966748</v>
       </c>
       <c r="G3">
-        <v>2.048126427570985</v>
+        <v>19.86033003649233</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>3.319207638956025</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.541527636622012</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>9.955281358269161</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,45 +510,48 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>10.95047900607175</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>14.69692446600516</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>11.51406655422255</v>
+      </c>
+      <c r="Q3">
+        <v>12.29279820214194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.75727601129737</v>
+        <v>18.1907572146356</v>
       </c>
       <c r="C4">
-        <v>14.18717326213464</v>
+        <v>13.45434651235621</v>
       </c>
       <c r="D4">
-        <v>3.08919629956481</v>
+        <v>3.795739349568358</v>
       </c>
       <c r="E4">
-        <v>26.51521807522412</v>
+        <v>26.83356978726942</v>
       </c>
       <c r="F4">
-        <v>18.55774255921811</v>
+        <v>15.60165051908363</v>
       </c>
       <c r="G4">
-        <v>2.052319188319746</v>
+        <v>19.2098458192029</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>3.168078200589314</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.503966886895245</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.0289693864981</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,45 +560,48 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.04766722466025</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>14.37180061486598</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>11.52126760887826</v>
+      </c>
+      <c r="Q4">
+        <v>12.10365479627443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.3537181742894</v>
+        <v>17.83904443435076</v>
       </c>
       <c r="C5">
-        <v>13.92878319206443</v>
+        <v>13.2159468566312</v>
       </c>
       <c r="D5">
-        <v>3.069845076480352</v>
+        <v>3.744628883109999</v>
       </c>
       <c r="E5">
-        <v>25.92144216777629</v>
+        <v>26.33078544640328</v>
       </c>
       <c r="F5">
-        <v>18.31455549796463</v>
+        <v>15.42942479187101</v>
       </c>
       <c r="G5">
-        <v>2.054055201869201</v>
+        <v>18.9426940329647</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>3.105187895985738</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.489685178415299</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>10.0611502843405</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,45 +610,48 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.08815240886008</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>14.24223881449349</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>11.52491961448691</v>
+      </c>
+      <c r="Q5">
+        <v>12.02800764654321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.2859187481976</v>
+        <v>17.77993911789754</v>
       </c>
       <c r="C6">
-        <v>13.88541729486414</v>
+        <v>13.17592467852758</v>
       </c>
       <c r="D6">
-        <v>3.066615381740952</v>
+        <v>3.736059398516538</v>
       </c>
       <c r="E6">
-        <v>25.82186595999729</v>
+        <v>26.24636594751773</v>
       </c>
       <c r="F6">
-        <v>18.27421738439938</v>
+        <v>15.40081603351432</v>
       </c>
       <c r="G6">
-        <v>2.054345157155113</v>
+        <v>18.89821993775512</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>3.09466564996893</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.487374900367398</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10.0666204409623</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,45 +660,48 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.09492796858759</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>14.22090498184743</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>11.52556893673361</v>
+      </c>
+      <c r="Q6">
+        <v>12.01553452189435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.75188633031431</v>
+        <v>18.18606108495948</v>
       </c>
       <c r="C7">
-        <v>14.18371942056971</v>
+        <v>13.45116067372502</v>
       </c>
       <c r="D7">
-        <v>3.088936437112777</v>
+        <v>3.795055617787915</v>
       </c>
       <c r="E7">
-        <v>26.50727569052539</v>
+        <v>26.82685163007843</v>
       </c>
       <c r="F7">
-        <v>18.55446020132923</v>
+        <v>15.59932871961282</v>
       </c>
       <c r="G7">
-        <v>2.052342488155177</v>
+        <v>19.20625080154338</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>3.167235346860601</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.503770161296118</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10.02939483138442</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,45 +710,48 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.04820966444023</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>14.37004130834958</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>11.52131397524741</v>
+      </c>
+      <c r="Q7">
+        <v>12.10262872629078</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.69398879436138</v>
+        <v>19.87576120386212</v>
       </c>
       <c r="C8">
-        <v>15.43287618750728</v>
+        <v>14.60168080447303</v>
       </c>
       <c r="D8">
-        <v>3.18490925641766</v>
+        <v>4.043157432662996</v>
       </c>
       <c r="E8">
-        <v>29.39188079390492</v>
+        <v>29.2524039450777</v>
       </c>
       <c r="F8">
-        <v>19.79504860274865</v>
+        <v>16.47194931158812</v>
       </c>
       <c r="G8">
-        <v>2.043742631441911</v>
+        <v>20.54633851203652</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>3.476079956187645</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.585174596217064</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>9.884349689191732</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,45 +760,48 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10.84979416253855</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>15.05359171153074</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>11.50887691733524</v>
+      </c>
+      <c r="Q8">
+        <v>12.49935722935115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.09859867766054</v>
+        <v>22.82095808903448</v>
       </c>
       <c r="C9">
-        <v>17.6403679686246</v>
+        <v>16.6233755317936</v>
       </c>
       <c r="D9">
-        <v>3.362854647185698</v>
+        <v>4.484002912058457</v>
       </c>
       <c r="E9">
-        <v>34.57219233030288</v>
+        <v>33.51823660640306</v>
       </c>
       <c r="F9">
-        <v>22.22421392895321</v>
+        <v>18.15589135817645</v>
       </c>
       <c r="G9">
-        <v>2.027642982253848</v>
+        <v>23.08435784569641</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>4.042261315223641</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.778753756904047</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>9.677496689213919</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,45 +810,48 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.48898800501528</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>16.47930544259558</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>11.50830010076143</v>
+      </c>
+      <c r="Q9">
+        <v>13.31797390832754</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.36057158935538</v>
+        <v>24.72096883956253</v>
       </c>
       <c r="C10">
-        <v>19.11602345375609</v>
+        <v>17.90705850216793</v>
       </c>
       <c r="D10">
-        <v>3.486410855448013</v>
+        <v>4.801821611686614</v>
       </c>
       <c r="E10">
-        <v>38.11616967421757</v>
+        <v>35.47862276139401</v>
       </c>
       <c r="F10">
-        <v>23.99613760866688</v>
+        <v>19.26152889645121</v>
       </c>
       <c r="G10">
-        <v>2.016186253230546</v>
+        <v>24.69190781650888</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>4.398429486422804</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.909030633678714</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>9.537433827005973</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,45 +860,48 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.24175541552397</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>17.5745902721662</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>11.54313821804899</v>
+      </c>
+      <c r="Q10">
+        <v>13.8557126502731</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.33930732091953</v>
+        <v>25.19596548574162</v>
       </c>
       <c r="C11">
-        <v>19.75625876336815</v>
+        <v>17.98026865542381</v>
       </c>
       <c r="D11">
-        <v>3.540892619515687</v>
+        <v>5.136271293653919</v>
       </c>
       <c r="E11">
-        <v>39.67876476368763</v>
+        <v>28.88721195048437</v>
       </c>
       <c r="F11">
-        <v>24.85185686719641</v>
+        <v>18.86139306418997</v>
       </c>
       <c r="G11">
-        <v>2.011031241964355</v>
+        <v>23.79095821190037</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>4.721812657077355</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.677682287157643</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>9.10394508616991</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,45 +910,48 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.13334547959639</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>18.08283437009755</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>11.73905297090934</v>
+      </c>
+      <c r="Q11">
+        <v>13.36719383694662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.7028574816673</v>
+        <v>25.2124884956338</v>
       </c>
       <c r="C12">
-        <v>19.99430993698489</v>
+        <v>17.78371273431755</v>
       </c>
       <c r="D12">
-        <v>3.561263284214063</v>
+        <v>5.354809047192465</v>
       </c>
       <c r="E12">
-        <v>40.26404191870724</v>
+        <v>22.97520626359004</v>
       </c>
       <c r="F12">
-        <v>25.19955050863991</v>
+        <v>18.27893935171435</v>
       </c>
       <c r="G12">
-        <v>2.009085094207409</v>
+        <v>22.67833821577237</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>5.487125411568354</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.44682323641179</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>8.759226734958849</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,45 +960,48 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.0928973005724</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>18.28095518276673</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>11.90162890655074</v>
+      </c>
+      <c r="Q12">
+        <v>12.82673582801578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.62487260549137</v>
+        <v>24.87920380502547</v>
       </c>
       <c r="C13">
-        <v>19.94323535843081</v>
+        <v>17.36323219029591</v>
       </c>
       <c r="D13">
-        <v>3.556887860920842</v>
+        <v>5.50243349620645</v>
       </c>
       <c r="E13">
-        <v>40.13826669287756</v>
+        <v>17.14283822137579</v>
       </c>
       <c r="F13">
-        <v>25.12479355254085</v>
+        <v>17.5028756118543</v>
       </c>
       <c r="G13">
-        <v>2.009504005686672</v>
+        <v>21.29768355535716</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>6.474297598389193</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.200235899557423</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>8.463827770326688</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,45 +1010,48 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.10158128820876</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>18.2349110239473</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.04408203422711</v>
+      </c>
+      <c r="Q13">
+        <v>12.20230879399224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.36935771110903</v>
+        <v>24.48373660271482</v>
       </c>
       <c r="C14">
-        <v>19.77593092392334</v>
+        <v>16.96329932074718</v>
       </c>
       <c r="D14">
-        <v>3.542573811172715</v>
+        <v>5.575206907473121</v>
       </c>
       <c r="E14">
-        <v>39.72704075529471</v>
+        <v>13.19257952334049</v>
       </c>
       <c r="F14">
-        <v>24.88051842802208</v>
+        <v>16.86295582162551</v>
       </c>
       <c r="G14">
-        <v>2.010871025717808</v>
+        <v>20.19119773958719</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>7.255378539052431</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.020272829643536</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>8.282994741704496</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,45 +1060,48 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.13000553871173</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>18.09875772818931</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.13386992477837</v>
+      </c>
+      <c r="Q14">
+        <v>11.72298942303335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.21193067455015</v>
+        <v>24.31057210150999</v>
       </c>
       <c r="C15">
-        <v>19.6728825952783</v>
+        <v>16.81587046816603</v>
       </c>
       <c r="D15">
-        <v>3.533771786796854</v>
+        <v>5.577903264550259</v>
       </c>
       <c r="E15">
-        <v>39.47433573493107</v>
+        <v>12.25901922173501</v>
       </c>
       <c r="F15">
-        <v>24.73052394456789</v>
+        <v>16.66539890967767</v>
       </c>
       <c r="G15">
-        <v>2.011709068805847</v>
+        <v>19.86181939094228</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>7.435899700010186</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.974295491986063</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>8.251426128476698</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,45 +1110,48 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.14749559824521</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>18.01554819484171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>12.1503480066619</v>
+      </c>
+      <c r="Q15">
+        <v>11.58966970159969</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.29561026853984</v>
+        <v>23.57898098581864</v>
       </c>
       <c r="C16">
-        <v>19.07356363319365</v>
+        <v>16.34612785845942</v>
       </c>
       <c r="D16">
-        <v>3.482814548733571</v>
+        <v>5.42607741290772</v>
       </c>
       <c r="E16">
-        <v>38.01310936055111</v>
+        <v>12.16688592126395</v>
       </c>
       <c r="F16">
-        <v>23.94362782851246</v>
+        <v>16.30643457904189</v>
       </c>
       <c r="G16">
-        <v>2.016524103278525</v>
+        <v>19.36034693755163</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>7.162418701365655</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.964261679164707</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>8.375185916218239</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,45 +1160,48 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.24892360045789</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>17.54157586576341</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12.095195543084</v>
+      </c>
+      <c r="Q16">
+        <v>11.46120042366992</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.72070984465514</v>
+        <v>23.22577073518891</v>
       </c>
       <c r="C17">
-        <v>18.69799515234109</v>
+        <v>16.20054802653686</v>
       </c>
       <c r="D17">
-        <v>3.451102957354149</v>
+        <v>5.266892029021415</v>
       </c>
       <c r="E17">
-        <v>37.10445661823945</v>
+        <v>14.20537071321354</v>
       </c>
       <c r="F17">
-        <v>23.48301701898591</v>
+        <v>16.38550329975312</v>
       </c>
       <c r="G17">
-        <v>2.019491001773645</v>
+        <v>19.59312198113863</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>6.488154387001431</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.054010955909342</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>8.564957390582286</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,45 +1210,48 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.31219923470603</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>17.25335974989521</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>12.00690134369449</v>
+      </c>
+      <c r="Q17">
+        <v>11.62587075171901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.38530304644786</v>
+        <v>23.17133130584853</v>
       </c>
       <c r="C18">
-        <v>18.47905035823475</v>
+        <v>16.32799372298255</v>
       </c>
       <c r="D18">
-        <v>3.432701616211586</v>
+        <v>5.085008783976319</v>
       </c>
       <c r="E18">
-        <v>36.57711119459213</v>
+        <v>18.66151246811416</v>
       </c>
       <c r="F18">
-        <v>23.21772847747959</v>
+        <v>16.84663681570443</v>
       </c>
       <c r="G18">
-        <v>2.021202967964008</v>
+        <v>20.48163630974888</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>5.486658819054719</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.236233899456537</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>8.830510148336705</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,45 +1260,48 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.3489741390014</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>17.08852383268887</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>11.88107237982315</v>
+      </c>
+      <c r="Q18">
+        <v>12.05488569169166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.27092176708846</v>
+        <v>23.36529262668462</v>
       </c>
       <c r="C19">
-        <v>18.40441463194838</v>
+        <v>16.66916552454936</v>
       </c>
       <c r="D19">
-        <v>3.426443871834083</v>
+        <v>4.900392598738473</v>
       </c>
       <c r="E19">
-        <v>36.39773227048141</v>
+        <v>24.85881920800409</v>
       </c>
       <c r="F19">
-        <v>23.12784624970653</v>
+        <v>17.56894111485158</v>
       </c>
       <c r="G19">
-        <v>2.021783615571429</v>
+        <v>21.81170023061656</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>4.559492807824551</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.476681477105992</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>9.140034338387036</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,45 +1310,48 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.36149025628895</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>17.03287487954334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>11.73537285182434</v>
+      </c>
+      <c r="Q19">
+        <v>12.65671972373776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.78239843584876</v>
+        <v>24.23491720815258</v>
       </c>
       <c r="C20">
-        <v>18.73827759516968</v>
+        <v>17.57683195338016</v>
       </c>
       <c r="D20">
-        <v>3.454495537191821</v>
+        <v>4.721517272248136</v>
       </c>
       <c r="E20">
-        <v>37.201667285566</v>
+        <v>34.93604881562212</v>
       </c>
       <c r="F20">
-        <v>23.5320870785456</v>
+        <v>18.9682627908229</v>
       </c>
       <c r="G20">
-        <v>2.019174617930706</v>
+        <v>24.26504780700712</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>4.303807729503357</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.871834603309908</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>9.568335718394431</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,45 +1360,48 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.30542392325421</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>17.28394382260901</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>11.53360144054476</v>
+      </c>
+      <c r="Q20">
+        <v>13.70920211097267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.44459939829112</v>
+        <v>25.68544773348436</v>
       </c>
       <c r="C21">
-        <v>19.82519082833575</v>
+        <v>18.60381389661215</v>
       </c>
       <c r="D21">
-        <v>3.546785353566313</v>
+        <v>4.920435330793256</v>
       </c>
       <c r="E21">
-        <v>39.847996742352</v>
+        <v>37.71157443991074</v>
       </c>
       <c r="F21">
-        <v>24.9523445628292</v>
+        <v>19.96680307022728</v>
       </c>
       <c r="G21">
-        <v>2.010469356442728</v>
+        <v>25.76723594035154</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>4.62894383644741</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.031205779906699</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>9.548693720828551</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,45 +1410,48 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.12164006062465</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>18.13870995288072</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>11.53513747759469</v>
+      </c>
+      <c r="Q21">
+        <v>14.2593811783776</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.48978107596357</v>
+        <v>26.57252886706409</v>
       </c>
       <c r="C22">
-        <v>20.50999714351109</v>
+        <v>19.21923012448158</v>
       </c>
       <c r="D22">
-        <v>3.605579527018719</v>
+        <v>5.056764955017272</v>
       </c>
       <c r="E22">
-        <v>41.54035480854116</v>
+        <v>39.01895075145803</v>
       </c>
       <c r="F22">
-        <v>25.95917493053298</v>
+        <v>20.55862698250868</v>
       </c>
       <c r="G22">
-        <v>2.004813381078018</v>
+        <v>26.63683060839875</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>4.818192794818465</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.122356015137255</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>9.526457015285061</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,45 +1460,48 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.00506167847011</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>18.85687950016453</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>11.54925731927861</v>
+      </c>
+      <c r="Q22">
+        <v>14.57830636071828</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.93566090356409</v>
+        <v>26.10273224224401</v>
       </c>
       <c r="C23">
-        <v>20.14681293317535</v>
+        <v>18.89319848733912</v>
       </c>
       <c r="D23">
-        <v>3.574343019785856</v>
+        <v>4.984504539907518</v>
       </c>
       <c r="E23">
-        <v>40.64026133207673</v>
+        <v>38.32604868886499</v>
       </c>
       <c r="F23">
-        <v>25.42327970435672</v>
+        <v>20.24345616001636</v>
       </c>
       <c r="G23">
-        <v>2.00782982584614</v>
+        <v>26.17410174528414</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>4.717510718886402</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.073316462721133</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>9.537098204351475</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,45 +1510,48 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.06695035684414</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>18.45052964091207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>11.54142726833635</v>
+      </c>
+      <c r="Q23">
+        <v>14.4078352493009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.75452426268147</v>
+        <v>24.24293010833556</v>
       </c>
       <c r="C24">
-        <v>18.72007533170808</v>
+        <v>17.60506412703319</v>
       </c>
       <c r="D24">
-        <v>3.452962280172692</v>
+        <v>4.699862376987839</v>
       </c>
       <c r="E24">
-        <v>37.15773380797086</v>
+        <v>35.59445818230114</v>
       </c>
       <c r="F24">
-        <v>23.50990398965572</v>
+        <v>19.03506299926966</v>
       </c>
       <c r="G24">
-        <v>2.019317635414159</v>
+        <v>24.39156193603514</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>4.328914542228251</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.896101545277155</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>9.60338110532747</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,45 +1560,48 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.30848580684202</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>17.27011407387025</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>11.51811575599732</v>
+      </c>
+      <c r="Q24">
+        <v>13.76808143122656</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.22013252131998</v>
+        <v>22.06356275836725</v>
       </c>
       <c r="C25">
-        <v>17.06902418366736</v>
+        <v>16.10183166612159</v>
       </c>
       <c r="D25">
-        <v>3.315914909287522</v>
+        <v>4.369760956440936</v>
       </c>
       <c r="E25">
-        <v>33.21902572473957</v>
+        <v>32.41674304330137</v>
       </c>
       <c r="F25">
-        <v>21.5687573508746</v>
+        <v>17.70450366094301</v>
       </c>
       <c r="G25">
-        <v>2.03192570320245</v>
+        <v>22.40900081106054</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>3.893171456975817</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.722629127678085</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>9.724307657232977</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1610,16 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.5835138854558</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>16.0849836657675</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>11.50580525661106</v>
+      </c>
+      <c r="Q25">
+        <v>13.09253351223781</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_34/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,43 +421,49 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.30864530961976</v>
+        <v>20.05019269435603</v>
       </c>
       <c r="C2">
-        <v>14.89766179404549</v>
+        <v>15.29160782453247</v>
       </c>
       <c r="D2">
-        <v>4.107339272419821</v>
+        <v>4.198613101540057</v>
       </c>
       <c r="E2">
-        <v>29.87642164541396</v>
+        <v>29.7850007500816</v>
       </c>
       <c r="F2">
-        <v>16.70701267354651</v>
+        <v>16.55165319191654</v>
       </c>
       <c r="G2">
-        <v>20.90398152063272</v>
+        <v>20.05641268947847</v>
       </c>
       <c r="H2">
-        <v>3.557038586447304</v>
+        <v>3.504386436999334</v>
       </c>
       <c r="J2">
-        <v>7.609482533865631</v>
+        <v>8.347968485484262</v>
       </c>
       <c r="K2">
-        <v>9.850002866316084</v>
+        <v>9.843977472396872</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.06985764515431</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>4.651716773085912</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -466,48 +472,54 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>11.50708255702121</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.6097325330982</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>11.63942081481939</v>
+      </c>
+      <c r="S2">
+        <v>12.53805022608293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.02521981722242</v>
+        <v>18.81365459368691</v>
       </c>
       <c r="C3">
-        <v>14.02152871834951</v>
+        <v>14.32575687141881</v>
       </c>
       <c r="D3">
-        <v>3.917764021952383</v>
+        <v>3.994652931627749</v>
       </c>
       <c r="E3">
-        <v>28.02939649694819</v>
+        <v>27.9487980998793</v>
       </c>
       <c r="F3">
-        <v>16.02352796966748</v>
+        <v>15.92245471750346</v>
       </c>
       <c r="G3">
-        <v>19.86033003649233</v>
+        <v>19.0547272660227</v>
       </c>
       <c r="H3">
-        <v>3.319207638956025</v>
+        <v>3.27372902504939</v>
       </c>
       <c r="J3">
-        <v>7.541527636622012</v>
+        <v>8.277087090728344</v>
       </c>
       <c r="K3">
-        <v>9.955281358269161</v>
+        <v>9.969075157413199</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.25941720738819</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>4.583792486026654</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -516,48 +528,54 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>11.51406655422255</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>12.29279820214194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>11.61875804462195</v>
+      </c>
+      <c r="S3">
+        <v>12.26027261758701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.1907572146356</v>
+        <v>18.00948470179141</v>
       </c>
       <c r="C4">
-        <v>13.45434651235621</v>
+        <v>13.69997762174739</v>
       </c>
       <c r="D4">
-        <v>3.795739349568358</v>
+        <v>3.86339861861826</v>
       </c>
       <c r="E4">
-        <v>26.83356978726942</v>
+        <v>26.75980104228654</v>
       </c>
       <c r="F4">
-        <v>15.60165051908363</v>
+        <v>15.53367337614177</v>
       </c>
       <c r="G4">
-        <v>19.2098458192029</v>
+        <v>18.43031894868673</v>
       </c>
       <c r="H4">
-        <v>3.168078200589314</v>
+        <v>3.127093236565843</v>
       </c>
       <c r="J4">
-        <v>7.503966886895245</v>
+        <v>8.235269778724275</v>
       </c>
       <c r="K4">
-        <v>10.0289693864981</v>
+        <v>10.05261055535186</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.38105451797356</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>4.578466635880718</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -566,48 +584,54 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>11.52126760887826</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>12.10365479627443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>11.60915173273812</v>
+      </c>
+      <c r="S4">
+        <v>12.09413231880876</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.83904443435076</v>
+        <v>17.6705018386099</v>
       </c>
       <c r="C5">
-        <v>13.2159468566312</v>
+        <v>13.43682212795625</v>
       </c>
       <c r="D5">
-        <v>3.744628883109999</v>
+        <v>3.808431899521125</v>
       </c>
       <c r="E5">
-        <v>26.33078544640328</v>
+        <v>26.2598547223642</v>
       </c>
       <c r="F5">
-        <v>15.42942479187101</v>
+        <v>15.3748304481525</v>
       </c>
       <c r="G5">
-        <v>18.9426940329647</v>
+        <v>18.17381937051074</v>
       </c>
       <c r="H5">
-        <v>3.105187895985738</v>
+        <v>3.066058195769322</v>
       </c>
       <c r="J5">
-        <v>7.489685178415299</v>
+        <v>8.218652371203818</v>
       </c>
       <c r="K5">
-        <v>10.0611502843405</v>
+        <v>10.08825784906475</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>10.43195809675721</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>4.585353759180811</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -616,48 +640,54 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>11.52491961448691</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>12.02800764654321</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>11.60600291565059</v>
+      </c>
+      <c r="S5">
+        <v>12.02757241102801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.77993911789754</v>
+        <v>17.61353380426636</v>
       </c>
       <c r="C6">
-        <v>13.17592467852758</v>
+        <v>13.39263652817762</v>
       </c>
       <c r="D6">
-        <v>3.736059398516538</v>
+        <v>3.799216505632604</v>
       </c>
       <c r="E6">
-        <v>26.24636594751773</v>
+        <v>26.17591005052184</v>
       </c>
       <c r="F6">
-        <v>15.40081603351432</v>
+        <v>15.34843617864789</v>
       </c>
       <c r="G6">
-        <v>18.89821993775512</v>
+        <v>18.13111399502062</v>
       </c>
       <c r="H6">
-        <v>3.09466564996893</v>
+        <v>3.055845515405287</v>
       </c>
       <c r="J6">
-        <v>7.487374900367398</v>
+        <v>8.215918483410773</v>
       </c>
       <c r="K6">
-        <v>10.0666204409623</v>
+        <v>10.09427167138232</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>10.44049171524429</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>4.587037898701952</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -666,48 +696,54 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>11.52556893673361</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>12.01553452189435</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>11.60552605278048</v>
+      </c>
+      <c r="S6">
+        <v>12.01659016543999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.18606108495948</v>
+        <v>17.99957595887298</v>
       </c>
       <c r="C7">
-        <v>13.45116067372502</v>
+        <v>13.68718804321673</v>
       </c>
       <c r="D7">
-        <v>3.795055617787915</v>
+        <v>3.865573285347421</v>
       </c>
       <c r="E7">
-        <v>26.82685163007843</v>
+        <v>26.75247433675192</v>
       </c>
       <c r="F7">
-        <v>15.59932871961282</v>
+        <v>15.51718211658262</v>
       </c>
       <c r="G7">
-        <v>19.20625080154338</v>
+        <v>18.53659411119937</v>
       </c>
       <c r="H7">
-        <v>3.167235346860601</v>
+        <v>3.12591427147548</v>
       </c>
       <c r="J7">
-        <v>7.503770161296118</v>
+        <v>8.18972516431826</v>
       </c>
       <c r="K7">
-        <v>10.02939483138442</v>
+        <v>10.04828943548399</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.37757939128618</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>4.575269245116501</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -716,48 +752,54 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>11.52131397524741</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>12.10262872629078</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>11.61085698647154</v>
+      </c>
+      <c r="S7">
+        <v>12.08210842035535</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.87576120386212</v>
+        <v>19.61661929916225</v>
       </c>
       <c r="C8">
-        <v>14.60168080447303</v>
+        <v>14.93676275771075</v>
       </c>
       <c r="D8">
-        <v>4.043157432662996</v>
+        <v>4.138752685494065</v>
       </c>
       <c r="E8">
-        <v>29.2524039450777</v>
+        <v>29.16274199356172</v>
       </c>
       <c r="F8">
-        <v>16.47194931158812</v>
+        <v>16.28982217792349</v>
       </c>
       <c r="G8">
-        <v>20.54633851203652</v>
+        <v>20.05535582038537</v>
       </c>
       <c r="H8">
-        <v>3.476079956187645</v>
+        <v>3.424767418818911</v>
       </c>
       <c r="J8">
-        <v>7.585174596217064</v>
+        <v>8.175507921574253</v>
       </c>
       <c r="K8">
-        <v>9.884349689191732</v>
+        <v>9.869713388366813</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.12174175579946</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>4.607218135469449</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -766,48 +808,54 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>11.50887691733524</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>12.49935722935115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>11.63773173310065</v>
+      </c>
+      <c r="S8">
+        <v>12.40541792346145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.82095808903448</v>
+        <v>22.45067661339239</v>
       </c>
       <c r="C9">
-        <v>16.6233755317936</v>
+        <v>17.15885087208578</v>
       </c>
       <c r="D9">
-        <v>4.484002912058457</v>
+        <v>4.614706126304853</v>
       </c>
       <c r="E9">
-        <v>33.51823660640306</v>
+        <v>33.40203096258238</v>
       </c>
       <c r="F9">
-        <v>18.15589135817645</v>
+        <v>17.83073317915578</v>
       </c>
       <c r="G9">
-        <v>23.08435784569641</v>
+        <v>22.5406796720248</v>
       </c>
       <c r="H9">
-        <v>4.042261315223641</v>
+        <v>3.973287867886425</v>
       </c>
       <c r="J9">
-        <v>7.778753756904047</v>
+        <v>8.324843142015077</v>
       </c>
       <c r="K9">
-        <v>9.677496689213919</v>
+        <v>9.594332844574266</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>9.676196141831953</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>4.965034728450803</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -816,48 +864,54 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>11.50830010076143</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>13.31797390832754</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>11.70890285690105</v>
+      </c>
+      <c r="S9">
+        <v>13.11409347707519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.72096883956253</v>
+        <v>24.25537580344042</v>
       </c>
       <c r="C10">
-        <v>17.90705850216793</v>
+        <v>18.5237341727431</v>
       </c>
       <c r="D10">
-        <v>4.801821611686614</v>
+        <v>4.969061726184902</v>
       </c>
       <c r="E10">
-        <v>35.47862276139401</v>
+        <v>35.34046545953735</v>
       </c>
       <c r="F10">
-        <v>19.26152889645121</v>
+        <v>18.76927873622938</v>
       </c>
       <c r="G10">
-        <v>24.69190781650888</v>
+        <v>24.62127748698586</v>
       </c>
       <c r="H10">
-        <v>4.398429486422804</v>
+        <v>4.315634888488614</v>
       </c>
       <c r="J10">
-        <v>7.909030633678714</v>
+        <v>8.169864021255394</v>
       </c>
       <c r="K10">
-        <v>9.537433827005973</v>
+        <v>9.368396280990135</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.334886177778321</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>5.310786603810167</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -866,48 +920,54 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>11.54313821804899</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>13.8557126502731</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>11.80700020450604</v>
+      </c>
+      <c r="S10">
+        <v>13.51612256125292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.19596548574162</v>
+        <v>24.67941694342586</v>
       </c>
       <c r="C11">
-        <v>17.98026865542381</v>
+        <v>18.49921445187047</v>
       </c>
       <c r="D11">
-        <v>5.136271293653919</v>
+        <v>5.334632434720589</v>
       </c>
       <c r="E11">
-        <v>28.88721195048437</v>
+        <v>28.73165130328676</v>
       </c>
       <c r="F11">
-        <v>18.86139306418997</v>
+        <v>18.2242252810362</v>
       </c>
       <c r="G11">
-        <v>23.79095821190037</v>
+        <v>24.84713825097356</v>
       </c>
       <c r="H11">
-        <v>4.721812657077355</v>
+        <v>4.642966812849019</v>
       </c>
       <c r="J11">
-        <v>7.677682287157643</v>
+        <v>7.476227649489974</v>
       </c>
       <c r="K11">
-        <v>9.10394508616991</v>
+        <v>8.914097430905207</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.988526484610809</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5.08688498730669</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -916,48 +976,54 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>11.73905297090934</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>13.36719383694662</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.04175226609502</v>
+      </c>
+      <c r="S11">
+        <v>12.91569241216214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.2124884956338</v>
+        <v>24.68652894376217</v>
       </c>
       <c r="C12">
-        <v>17.78371273431755</v>
+        <v>18.2294243810326</v>
       </c>
       <c r="D12">
-        <v>5.354809047192465</v>
+        <v>5.563698342174988</v>
       </c>
       <c r="E12">
-        <v>22.97520626359004</v>
+        <v>22.80320920601754</v>
       </c>
       <c r="F12">
-        <v>18.27893935171435</v>
+        <v>17.59675991569091</v>
       </c>
       <c r="G12">
-        <v>22.67833821577237</v>
+        <v>24.28922843938471</v>
       </c>
       <c r="H12">
-        <v>5.487125411568354</v>
+        <v>5.421193856881772</v>
       </c>
       <c r="J12">
-        <v>7.44682323641179</v>
+        <v>7.092410384701976</v>
       </c>
       <c r="K12">
-        <v>8.759226734958849</v>
+        <v>8.593686531388038</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.788253061738963</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>4.824615848511279</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -966,48 +1032,54 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>11.90162890655074</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>12.82673582801578</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.21660564802423</v>
+      </c>
+      <c r="S12">
+        <v>12.34638303947949</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.87920380502547</v>
+        <v>24.38528188725664</v>
       </c>
       <c r="C13">
-        <v>17.36323219029591</v>
+        <v>17.76601592165151</v>
       </c>
       <c r="D13">
-        <v>5.50243349620645</v>
+        <v>5.699878296442481</v>
       </c>
       <c r="E13">
-        <v>17.14283822137579</v>
+        <v>16.94904521523665</v>
       </c>
       <c r="F13">
-        <v>17.5028756118543</v>
+        <v>16.8802111436321</v>
       </c>
       <c r="G13">
-        <v>21.29768355535716</v>
+        <v>22.84946780106585</v>
       </c>
       <c r="H13">
-        <v>6.474297598389193</v>
+        <v>6.422360488903202</v>
       </c>
       <c r="J13">
-        <v>7.200235899557423</v>
+        <v>6.971501162699199</v>
       </c>
       <c r="K13">
-        <v>8.463827770326688</v>
+        <v>8.366731496184661</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.678526171476141</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>4.528391192080572</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1016,48 +1088,54 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>12.04408203422711</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>12.20230879399224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.34468712291546</v>
+      </c>
+      <c r="S13">
+        <v>11.78021293624349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.48373660271482</v>
+        <v>24.03085534406011</v>
       </c>
       <c r="C14">
-        <v>16.96329932074718</v>
+        <v>17.3483400828202</v>
       </c>
       <c r="D14">
-        <v>5.575206907473121</v>
+        <v>5.754556656184348</v>
       </c>
       <c r="E14">
-        <v>13.19257952334049</v>
+        <v>12.97398417006933</v>
       </c>
       <c r="F14">
-        <v>16.86295582162551</v>
+        <v>16.32861578717134</v>
       </c>
       <c r="G14">
-        <v>20.19119773958719</v>
+        <v>21.43021849356736</v>
       </c>
       <c r="H14">
-        <v>7.255378539052431</v>
+        <v>7.212194774395714</v>
       </c>
       <c r="J14">
-        <v>7.020272829643536</v>
+        <v>6.988038964094432</v>
       </c>
       <c r="K14">
-        <v>8.282994741704496</v>
+        <v>8.249796079494084</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.637375610505709</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.307744101279802</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1066,48 +1144,54 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>12.13386992477837</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>11.72298942303335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.41218456066396</v>
+      </c>
+      <c r="S14">
+        <v>11.37978269848184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.31057210150999</v>
+        <v>23.87599255984367</v>
       </c>
       <c r="C15">
-        <v>16.81587046816603</v>
+        <v>17.20148546362325</v>
       </c>
       <c r="D15">
-        <v>5.577903264550259</v>
+        <v>5.748458116930434</v>
       </c>
       <c r="E15">
-        <v>12.25901922173501</v>
+        <v>12.03406452349909</v>
       </c>
       <c r="F15">
-        <v>16.66539890967767</v>
+        <v>16.17277966636228</v>
       </c>
       <c r="G15">
-        <v>19.86181939094228</v>
+        <v>20.90742324523855</v>
       </c>
       <c r="H15">
-        <v>7.435899700010186</v>
+        <v>7.395009112575337</v>
       </c>
       <c r="J15">
-        <v>6.974295491986063</v>
+        <v>7.036179069767763</v>
       </c>
       <c r="K15">
-        <v>8.251426128476698</v>
+        <v>8.240185892814672</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.642875720581442</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.248929582475072</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1116,48 +1200,54 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>12.1503480066619</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>11.58966970159969</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.41792897845815</v>
+      </c>
+      <c r="S15">
+        <v>11.28185643564804</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.57898098581864</v>
+        <v>23.21630402672689</v>
       </c>
       <c r="C16">
-        <v>16.34612785845942</v>
+        <v>16.76785453426832</v>
       </c>
       <c r="D16">
-        <v>5.42607741290772</v>
+        <v>5.559821470903521</v>
       </c>
       <c r="E16">
-        <v>12.16688592126395</v>
+        <v>11.96164628581784</v>
       </c>
       <c r="F16">
-        <v>16.30643457904189</v>
+        <v>15.98358046806249</v>
       </c>
       <c r="G16">
-        <v>19.36034693755163</v>
+        <v>19.43370787880671</v>
       </c>
       <c r="H16">
-        <v>7.162418701365655</v>
+        <v>7.125237822309177</v>
       </c>
       <c r="J16">
-        <v>6.964261679164707</v>
+        <v>7.428177009302515</v>
       </c>
       <c r="K16">
-        <v>8.375185916218239</v>
+        <v>8.418310818542027</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.795314558199266</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.20529967051294</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1166,48 +1256,54 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.095195543084</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>11.46120042366992</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.31765980157527</v>
+      </c>
+      <c r="S16">
+        <v>11.28825450939043</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.22577073518891</v>
+        <v>22.88989831193204</v>
       </c>
       <c r="C17">
-        <v>16.20054802653686</v>
+        <v>16.64911416099522</v>
       </c>
       <c r="D17">
-        <v>5.266892029021415</v>
+        <v>5.386423918114858</v>
       </c>
       <c r="E17">
-        <v>14.20537071321354</v>
+        <v>14.02900344479825</v>
       </c>
       <c r="F17">
-        <v>16.38550329975312</v>
+        <v>16.1263258766959</v>
       </c>
       <c r="G17">
-        <v>19.59312198113863</v>
+        <v>19.22289255185374</v>
       </c>
       <c r="H17">
-        <v>6.488154387001431</v>
+        <v>6.449564447857002</v>
       </c>
       <c r="J17">
-        <v>7.054010955909342</v>
+        <v>7.684150472383012</v>
       </c>
       <c r="K17">
-        <v>8.564957390582286</v>
+        <v>8.61285496919832</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.94105960861021</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.283003742339582</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1216,48 +1312,54 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.00690134369449</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>11.62587075171901</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.21094185915086</v>
+      </c>
+      <c r="S17">
+        <v>11.49921975935218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.17133130584853</v>
+        <v>22.83438165279339</v>
       </c>
       <c r="C18">
-        <v>16.32799372298255</v>
+        <v>16.81451877076827</v>
       </c>
       <c r="D18">
-        <v>5.085008783976319</v>
+        <v>5.202843191936645</v>
       </c>
       <c r="E18">
-        <v>18.66151246811416</v>
+        <v>18.51351299285944</v>
       </c>
       <c r="F18">
-        <v>16.84663681570443</v>
+        <v>16.59292847613196</v>
       </c>
       <c r="G18">
-        <v>20.48163630974888</v>
+        <v>19.89264599604815</v>
       </c>
       <c r="H18">
-        <v>5.486658819054719</v>
+        <v>5.440867056239068</v>
       </c>
       <c r="J18">
-        <v>7.236233899456537</v>
+        <v>7.919241164978205</v>
       </c>
       <c r="K18">
-        <v>8.830510148336705</v>
+        <v>8.852516875451355</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.10494103940235</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>4.47167665552954</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1266,48 +1368,54 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>11.88107237982315</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>12.05488569169166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.08194564452927</v>
+      </c>
+      <c r="S18">
+        <v>11.9261358553573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.36529262668462</v>
+        <v>23.00831499278676</v>
       </c>
       <c r="C19">
-        <v>16.66916552454936</v>
+        <v>17.20635201081977</v>
       </c>
       <c r="D19">
-        <v>4.900392598738473</v>
+        <v>5.024232857329112</v>
       </c>
       <c r="E19">
-        <v>24.85881920800409</v>
+        <v>24.72741667263931</v>
       </c>
       <c r="F19">
-        <v>17.56894111485158</v>
+        <v>17.28503558982515</v>
       </c>
       <c r="G19">
-        <v>21.81170023061656</v>
+        <v>21.12215101082797</v>
       </c>
       <c r="H19">
-        <v>4.559492807824551</v>
+        <v>4.50050627939329</v>
       </c>
       <c r="J19">
-        <v>7.476681477105992</v>
+        <v>8.150155488902335</v>
       </c>
       <c r="K19">
-        <v>9.140034338387036</v>
+        <v>9.116559970670494</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.274613604843619</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>4.736947280855762</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1316,48 +1424,54 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>11.73537285182434</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>12.65671972373776</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>11.94294375975051</v>
+      </c>
+      <c r="S19">
+        <v>12.49672391758255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.23491720815258</v>
+        <v>23.80890157088768</v>
       </c>
       <c r="C20">
-        <v>17.57683195338016</v>
+        <v>18.19874022556352</v>
       </c>
       <c r="D20">
-        <v>4.721517272248136</v>
+        <v>4.870568514613254</v>
       </c>
       <c r="E20">
-        <v>34.93604881562212</v>
+        <v>34.80530213234982</v>
       </c>
       <c r="F20">
-        <v>18.9682627908229</v>
+        <v>18.56293024056623</v>
       </c>
       <c r="G20">
-        <v>24.26504780700712</v>
+        <v>23.76075488479617</v>
       </c>
       <c r="H20">
-        <v>4.303807729503357</v>
+        <v>4.225645789886778</v>
       </c>
       <c r="J20">
-        <v>7.871834603309908</v>
+        <v>8.359132871415357</v>
       </c>
       <c r="K20">
-        <v>9.568335718394431</v>
+        <v>9.440654982889681</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.431564687254399</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>5.228257984466716</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1366,48 +1480,54 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>11.53360144054476</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>13.70920211097267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>11.77361174162321</v>
+      </c>
+      <c r="S20">
+        <v>13.44124951749969</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.68544773348436</v>
+        <v>25.10709879645999</v>
       </c>
       <c r="C21">
-        <v>18.60381389661215</v>
+        <v>19.16215154856478</v>
       </c>
       <c r="D21">
-        <v>4.920435330793256</v>
+        <v>5.14323249110335</v>
       </c>
       <c r="E21">
-        <v>37.71157443991074</v>
+        <v>37.55576881167391</v>
       </c>
       <c r="F21">
-        <v>19.96680307022728</v>
+        <v>19.20390675220149</v>
       </c>
       <c r="G21">
-        <v>25.76723594035154</v>
+        <v>27.19766651849922</v>
       </c>
       <c r="H21">
-        <v>4.62894383644741</v>
+        <v>4.534433705595102</v>
       </c>
       <c r="J21">
-        <v>8.031205779906699</v>
+        <v>7.53274945737861</v>
       </c>
       <c r="K21">
-        <v>9.548693720828551</v>
+        <v>9.244367131891202</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.160128755892057</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>5.507075078889547</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1416,48 +1536,54 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>11.53513747759469</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>14.2593811783776</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>11.86416555943441</v>
+      </c>
+      <c r="S21">
+        <v>13.69253903274184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.57252886706409</v>
+        <v>25.89524791926695</v>
       </c>
       <c r="C22">
-        <v>19.21923012448158</v>
+        <v>19.72497823009084</v>
       </c>
       <c r="D22">
-        <v>5.056764955017272</v>
+        <v>5.328860262069603</v>
       </c>
       <c r="E22">
-        <v>39.01895075145803</v>
+        <v>38.84698057727029</v>
       </c>
       <c r="F22">
-        <v>20.55862698250868</v>
+        <v>19.55529623808031</v>
       </c>
       <c r="G22">
-        <v>26.63683060839875</v>
+        <v>29.3880712832675</v>
       </c>
       <c r="H22">
-        <v>4.818192794818465</v>
+        <v>4.713397811165073</v>
       </c>
       <c r="J22">
-        <v>8.122356015137255</v>
+        <v>6.980125262291407</v>
       </c>
       <c r="K22">
-        <v>9.526457015285061</v>
+        <v>9.09733001821002</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.975760666193644</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>5.866676567723819</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1466,48 +1592,54 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>11.54925731927861</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>14.57830636071828</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>11.94010054425337</v>
+      </c>
+      <c r="S22">
+        <v>13.80728290840538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.10273224224401</v>
+        <v>25.48832733476016</v>
       </c>
       <c r="C23">
-        <v>18.89319848733912</v>
+        <v>19.44507546151002</v>
       </c>
       <c r="D23">
-        <v>4.984504539907518</v>
+        <v>5.224205462161235</v>
       </c>
       <c r="E23">
-        <v>38.32604868886499</v>
+        <v>38.16367794805159</v>
       </c>
       <c r="F23">
-        <v>20.24345616001636</v>
+        <v>19.39876624922848</v>
       </c>
       <c r="G23">
-        <v>26.17410174528414</v>
+        <v>28.00578989442501</v>
       </c>
       <c r="H23">
-        <v>4.717510718886402</v>
+        <v>4.6187989694656</v>
       </c>
       <c r="J23">
-        <v>8.073316462721133</v>
+        <v>7.365035945774919</v>
       </c>
       <c r="K23">
-        <v>9.537098204351475</v>
+        <v>9.188351664172668</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.08039331426227</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5.689224209225953</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1516,48 +1648,54 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>11.54142726833635</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>14.4078352493009</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>11.89372908189853</v>
+      </c>
+      <c r="S23">
+        <v>13.77158103008704</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.24293010833556</v>
+        <v>23.81574375218613</v>
       </c>
       <c r="C24">
-        <v>17.60506412703319</v>
+        <v>18.23251094006065</v>
       </c>
       <c r="D24">
-        <v>4.699862376987839</v>
+        <v>4.849028563861171</v>
       </c>
       <c r="E24">
-        <v>35.59445818230114</v>
+        <v>35.46403575123747</v>
       </c>
       <c r="F24">
-        <v>19.03506299926966</v>
+        <v>18.62895130590985</v>
       </c>
       <c r="G24">
-        <v>24.39156193603514</v>
+        <v>23.86474556978339</v>
       </c>
       <c r="H24">
-        <v>4.328914542228251</v>
+        <v>4.250566508111871</v>
       </c>
       <c r="J24">
-        <v>7.896101545277155</v>
+        <v>8.388749134515876</v>
       </c>
       <c r="K24">
-        <v>9.60338110532747</v>
+        <v>9.47177166683217</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.45319550059625</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>5.254622348327686</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1566,48 +1704,54 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>11.51811575599732</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>13.76808143122656</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>11.75808649634288</v>
+      </c>
+      <c r="S24">
+        <v>13.49885317229199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.06356275836725</v>
+        <v>21.72861684000119</v>
       </c>
       <c r="C25">
-        <v>16.10183166612159</v>
+        <v>16.59733073426379</v>
       </c>
       <c r="D25">
-        <v>4.369760956440936</v>
+        <v>4.487654092822233</v>
       </c>
       <c r="E25">
-        <v>32.41674304330137</v>
+        <v>32.30839342319788</v>
       </c>
       <c r="F25">
-        <v>17.70450366094301</v>
+        <v>17.43610778568604</v>
       </c>
       <c r="G25">
-        <v>22.40900081106054</v>
+        <v>21.74436015668729</v>
       </c>
       <c r="H25">
-        <v>3.893171456975817</v>
+        <v>3.829362180207567</v>
       </c>
       <c r="J25">
-        <v>7.722629127678085</v>
+        <v>8.344825377225277</v>
       </c>
       <c r="K25">
-        <v>9.724307657232977</v>
+        <v>9.668965832671432</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>9.797111393685693</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>4.846244557962208</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1616,10 +1760,16 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>11.50580525661106</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>13.09253351223781</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.684206627265</v>
+      </c>
+      <c r="S25">
+        <v>12.93377819497802</v>
       </c>
     </row>
   </sheetData>
